--- a/DataTable/FieldGroupLevelTable.xlsx
+++ b/DataTable/FieldGroupLevelTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{45027730-0F5F-0944-929A-B87447952547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{585C88E7-8AB8-D741-B8B3-D9D4E0CC1FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="1040" windowWidth="16880" windowHeight="9700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7480" yWindow="-15980" windowWidth="18960" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FieldGroupLevelTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="8" uniqueCount="5">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="16" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +53,26 @@
   </si>
   <si>
     <t>gem</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>noneGradeRate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bronzeGradeRate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>silverGradeRate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>goldGradeRate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1035,107 +1055,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D17"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>0</v>
       </c>
       <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="G4" s="3">
         <v>5000</v>
       </c>
-      <c r="D4" s="3">
+      <c r="H4" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <f>A4+1</f>
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
         <v>5000</v>
       </c>
-      <c r="D5" s="3">
+      <c r="H5" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <f t="shared" ref="A6:A17" si="0">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
         <v>5000</v>
       </c>
-      <c r="D6" s="3">
+      <c r="H6" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
         <v>5000</v>
       </c>
-      <c r="D7" s="3">
+      <c r="H7" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1144,144 +1240,264 @@
         <v>4</v>
       </c>
       <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
         <v>5000</v>
       </c>
-      <c r="D8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="G9" s="3">
         <v>5000</v>
       </c>
-      <c r="D9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="G10" s="3">
         <v>5000</v>
       </c>
-      <c r="D10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="G11" s="3">
         <v>5000</v>
       </c>
-      <c r="D11" s="3">
+      <c r="H11" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="G12" s="3">
         <v>5000</v>
       </c>
-      <c r="D12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="G13" s="3">
         <v>5000</v>
       </c>
-      <c r="D13" s="3">
+      <c r="H13" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
+      <c r="G14" s="3">
         <v>5000</v>
       </c>
-      <c r="D14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B15" s="3">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
+      <c r="G15" s="3">
         <v>5000</v>
       </c>
-      <c r="D15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
         <v>12</v>
       </c>
-      <c r="C16" s="3">
+      <c r="G16" s="3">
         <v>5000</v>
       </c>
-      <c r="D16" s="3">
+      <c r="H16" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
+      <c r="G17" s="3">
         <v>5000</v>
       </c>
-      <c r="D17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
     </row>

--- a/DataTable/FieldGroupLevelTable.xlsx
+++ b/DataTable/FieldGroupLevelTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityProject\ProjectF\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{585C88E7-8AB8-D741-B8B3-D9D4E0CC1FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C8AEBA39-1054-44E6-A0ED-CA9855C83619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="-15980" windowWidth="18960" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FieldGroupLevelTable" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1055,24 +1055,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H17"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1124,382 +1124,402 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>4</v>
+        <v>0.86960000000000004</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>0.13039999999999999</v>
       </c>
       <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>25</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H17" si="0">ROUND(G4/15, 0)</f>
         <v>2</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H4" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f>A4+1</f>
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>0.76619999999999999</v>
       </c>
       <c r="C5" s="3">
-        <v>3</v>
+        <v>0.23380000000000001</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>5000</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <f t="shared" ref="A6:A17" si="0">A5+1</f>
+        <f t="shared" ref="A6:A17" si="1">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>4</v>
+        <v>0.65310000000000001</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>0.34689999999999999</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>5000</v>
+        <v>70</v>
       </c>
       <c r="H6" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>4</v>
+        <v>0.47070000000000001</v>
       </c>
       <c r="C7" s="3">
-        <v>3</v>
+        <v>0.41980000000000001</v>
       </c>
       <c r="D7" s="3">
-        <v>2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>8.9099999999999999E-2</v>
       </c>
       <c r="F7" s="3">
         <v>3</v>
       </c>
       <c r="G7" s="3">
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="H7" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>4</v>
+        <v>0.28860000000000002</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>0.44950000000000001</v>
       </c>
       <c r="D8" s="3">
-        <v>2</v>
+        <v>0.1065</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>0.15540000000000001</v>
       </c>
       <c r="F8" s="3">
         <v>4</v>
       </c>
       <c r="G8" s="3">
-        <v>5000</v>
+        <v>260</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>4</v>
+        <v>0.16739999999999999</v>
       </c>
       <c r="C9" s="3">
-        <v>3</v>
+        <v>0.40179999999999999</v>
       </c>
       <c r="D9" s="3">
-        <v>2</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>0.2344</v>
       </c>
       <c r="F9" s="3">
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
+        <v>4.65E-2</v>
       </c>
       <c r="C10" s="3">
-        <v>3</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="D10" s="3">
-        <v>2</v>
+        <v>0.29730000000000001</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>0.32519999999999999</v>
       </c>
       <c r="F10" s="3">
         <v>6</v>
       </c>
       <c r="G10" s="3">
-        <v>5000</v>
+        <v>380</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B11" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>3</v>
+        <v>0.2344</v>
       </c>
       <c r="D11" s="3">
-        <v>2</v>
+        <v>0.375</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>0.3906</v>
       </c>
       <c r="F11" s="3">
         <v>7</v>
       </c>
       <c r="G11" s="3">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="H11" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>3</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>0.4284</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>0.4325</v>
       </c>
       <c r="F12" s="3">
         <v>8</v>
       </c>
       <c r="G12" s="3">
-        <v>5000</v>
+        <v>650</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B13" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>3</v>
+        <v>5.74E-2</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>0.47420000000000001</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>0.46850000000000003</v>
       </c>
       <c r="F13" s="3">
         <v>9</v>
       </c>
       <c r="G13" s="3">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="H13" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B14" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>0.49280000000000002</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>0.50719999999999998</v>
       </c>
       <c r="F14" s="3">
         <v>10</v>
       </c>
       <c r="G14" s="3">
-        <v>5000</v>
+        <v>1050</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>0.42409999999999998</v>
       </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>0.57589999999999997</v>
       </c>
       <c r="F15" s="3">
         <v>11</v>
       </c>
       <c r="G15" s="3">
-        <v>5000</v>
+        <v>1900</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>0.35420000000000001</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>0.64580000000000004</v>
       </c>
       <c r="F16" s="3">
         <v>12</v>
       </c>
       <c r="G16" s="3">
-        <v>5000</v>
+        <v>2750</v>
       </c>
       <c r="H16" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>0.28310000000000002</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>0.71689999999999998</v>
       </c>
       <c r="F17" s="3">
         <v>13</v>
       </c>
       <c r="G17" s="3">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/DataTable/FieldGroupLevelTable.xlsx
+++ b/DataTable/FieldGroupLevelTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityProject\ProjectF\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C8AEBA39-1054-44E6-A0ED-CA9855C83619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D9266752-7162-1642-95E4-849643D9DA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FieldGroupLevelTable" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1058,38 +1058,41 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -1098,12 +1101,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1115,7 +1118,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
@@ -1124,18 +1127,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>0</v>
       </c>
       <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
         <v>0.86960000000000004</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>0.13039999999999999</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -1151,25 +1154,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <f>A4+1</f>
         <v>1</v>
       </c>
       <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>0.76619999999999999</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>0.23380000000000001</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>45</v>
@@ -1179,25 +1182,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <f t="shared" ref="A6:A17" si="1">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
         <v>0.65310000000000001</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>0.34689999999999999</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>70</v>
@@ -1207,25 +1210,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
         <v>0.47070000000000001</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>0.41980000000000001</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>8.9099999999999999E-2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3</v>
       </c>
       <c r="G7" s="3">
         <v>150</v>
@@ -1235,25 +1238,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <v>0.28860000000000002</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>0.44950000000000001</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>0.1065</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>0.15540000000000001</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>260</v>
@@ -1263,25 +1266,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
         <v>0.16739999999999999</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>0.40179999999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>0.19639999999999999</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>0.2344</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
@@ -1291,25 +1294,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
         <v>4.65E-2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>0.33100000000000002</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>0.29730000000000001</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>0.32519999999999999</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6</v>
       </c>
       <c r="G10" s="3">
         <v>380</v>
@@ -1319,25 +1322,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
         <v>0.2344</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>0.375</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>0.3906</v>
-      </c>
-      <c r="F11" s="3">
-        <v>7</v>
       </c>
       <c r="G11" s="3">
         <v>500</v>
@@ -1347,25 +1350,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
         <v>0.13900000000000001</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>0.4284</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>0.4325</v>
-      </c>
-      <c r="F12" s="3">
-        <v>8</v>
       </c>
       <c r="G12" s="3">
         <v>650</v>
@@ -1375,25 +1378,25 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
         <v>5.74E-2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>0.47420000000000001</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>0.46850000000000003</v>
-      </c>
-      <c r="F13" s="3">
-        <v>9</v>
       </c>
       <c r="G13" s="3">
         <v>800</v>
@@ -1403,25 +1406,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>0.49280000000000002</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>0.50719999999999998</v>
-      </c>
-      <c r="F14" s="3">
-        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>1050</v>
@@ -1431,25 +1434,25 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>0.42409999999999998</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>0.57589999999999997</v>
-      </c>
-      <c r="F15" s="3">
-        <v>11</v>
       </c>
       <c r="G15" s="3">
         <v>1900</v>
@@ -1459,25 +1462,25 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
       </c>
       <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
         <v>0.35420000000000001</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>0.64580000000000004</v>
-      </c>
-      <c r="F16" s="3">
-        <v>12</v>
       </c>
       <c r="G16" s="3">
         <v>2750</v>
@@ -1487,25 +1490,25 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>0.28310000000000002</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>0.71689999999999998</v>
-      </c>
-      <c r="F17" s="3">
-        <v>13</v>
       </c>
       <c r="G17" s="3">
         <v>3600</v>
@@ -1515,11 +1518,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18"/>
+    <row r="18" spans="1:8">
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
+      <c r="F18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
